--- a/adm eval.xlsx
+++ b/adm eval.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
   <si>
     <t>Sl.No.</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Rating scale (0-5; 0-being lowest, 5-being highest)</t>
   </si>
   <si>
-    <t>Communication Skills</t>
-  </si>
-  <si>
     <t>Is he able to explain the Project? Justify the Implementation done?</t>
   </si>
   <si>
-    <t>Problem Solving Skills</t>
-  </si>
-  <si>
     <t>Analysis and Application Skills on a given topic</t>
   </si>
   <si>
@@ -88,6 +82,9 @@
   </si>
   <si>
     <t>Not Evaluated</t>
+  </si>
+  <si>
+    <t>Problem Solving Skill</t>
   </si>
 </sst>
 </file>
@@ -304,6 +301,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,15 +324,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -637,83 +634,81 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:22" ht="153.75">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="T1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="22" t="s">
         <v>20</v>
-      </c>
-      <c r="U1" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="V1" s="25"/>
     </row>
     <row r="2" spans="1:22" ht="77.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -726,20 +721,20 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
       <c r="T2" s="8"/>
       <c r="U2" s="23"/>
       <c r="V2" s="25"/>
     </row>
     <row r="3" spans="1:22" ht="204.75">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
@@ -768,12 +763,12 @@
       <c r="O3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
       <c r="T3" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U3" s="24"/>
       <c r="V3" s="25"/>
@@ -785,34 +780,34 @@
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -831,34 +826,34 @@
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -877,34 +872,34 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -923,34 +918,34 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -969,34 +964,34 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -1015,34 +1010,34 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -1061,34 +1056,34 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -1131,12 +1126,12 @@
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="U1:U3"/>
     <mergeCell ref="V1:V3"/>
+    <mergeCell ref="P1:P3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="P1:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
